--- a/Summary2015-2020_RS.xlsx
+++ b/Summary2015-2020_RS.xlsx
@@ -398,11 +398,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="7.94" customWidth="1"/>
+    <col min="2" max="2" width="18.63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
